--- a/Teste de mesa.xlsx
+++ b/Teste de mesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Desktop\Fatec\2°Semestre\Lp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{144274D3-DB8B-4BE7-9D01-C1967C30C8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12159D9D-06D4-4AFD-85F0-D22754F4B66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EBD7688-8B3F-4715-ADF4-E1A0B2A54EAC}"/>
   </bookViews>
@@ -41,7 +41,7 @@
     <t>SAÍDA</t>
   </si>
   <si>
-    <t>TESTE DE MESA - EX 36</t>
+    <t>TESTE DE MESA - EX</t>
   </si>
 </sst>
 </file>
@@ -106,7 +106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -136,19 +136,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -172,24 +159,30 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -507,23 +500,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4651C-EF3F-4CDE-BFD2-795D314AE26C}">
-  <dimension ref="D7:L12"/>
+  <dimension ref="D7:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:L9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="103.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:12" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:9" ht="28.5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,70 +525,204 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="4:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3" t="s">
+    </row>
+    <row r="8" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="6"/>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="5"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="6"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D11" s="5"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="5"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="5"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="5"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="5"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="5"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="5"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="5"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="5"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="5"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="5"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="7"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="D7:I7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Teste de mesa.xlsx
+++ b/Teste de mesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Desktop\Fatec\2°Semestre\Lp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12159D9D-06D4-4AFD-85F0-D22754F4B66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AB6D23-0C1D-412B-9AA8-1DE481F6E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EBD7688-8B3F-4715-ADF4-E1A0B2A54EAC}"/>
   </bookViews>
@@ -161,9 +161,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -183,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -502,223 +502,222 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4651C-EF3F-4CDE-BFD2-795D314AE26C}">
   <dimension ref="D7:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="103.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="4:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
     </row>
     <row r="8" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="3"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="3"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="2"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="2"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="3"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="3"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="2"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="3"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="3"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="2"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="2"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="2"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="5"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="5"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="5"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="5"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="5"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="5"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="5"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="7"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Teste de mesa.xlsx
+++ b/Teste de mesa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaom\Desktop\Fatec\2°Semestre\Lp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AB6D23-0C1D-412B-9AA8-1DE481F6E5E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C7C5F9-2568-4C4C-9438-3A6BE88A399F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6EBD7688-8B3F-4715-ADF4-E1A0B2A54EAC}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6EBD7688-8B3F-4715-ADF4-E1A0B2A54EAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>SAÍDA</t>
   </si>
   <si>
-    <t>TESTE DE MESA - EX</t>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>TESTE DE MESA - EX 74</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -129,59 +135,24 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,228 +471,1519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E4651C-EF3F-4CDE-BFD2-795D314AE26C}">
-  <dimension ref="D7:I31"/>
+  <dimension ref="D7:N59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:I7"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="38" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="D7" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="4:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="6"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+    <row r="7" spans="4:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; D9</f>
+        <v>Tabuada do 0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; H9</f>
+        <v>Tabuada do 2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>4</v>
+      </c>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; L9</f>
+        <v>Tabuada do 4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4" t="str">
+        <f>D10&amp;" x "&amp;E10&amp; " = " &amp; (D10*E10)</f>
+        <v>0 x 0 = 0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="str">
+        <f>H10&amp;" x "&amp;I10&amp; " = " &amp; (H10*I10)</f>
+        <v>2 x 0 = 0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4" t="str">
+        <f>L10&amp;" x "&amp;M10&amp; " = " &amp; (L10*M10)</f>
+        <v>4 x 0 = 0</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="str">
+        <f t="shared" ref="F11:F32" si="0">D11&amp;" x "&amp;E11&amp; " = " &amp; (D11*E11)</f>
+        <v>0 x 1 = 0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>1</v>
+      </c>
+      <c r="J11" s="4" t="str">
+        <f t="shared" ref="J11:J20" si="1">H11&amp;" x "&amp;I11&amp; " = " &amp; (H11*I11)</f>
+        <v>2 x 1 = 2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>4</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="str">
+        <f t="shared" ref="N11:N20" si="2">L11&amp;" x "&amp;M11&amp; " = " &amp; (L11*M11)</f>
+        <v>4 x 1 = 4</v>
+      </c>
+    </row>
+    <row r="12" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 2 = 0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 2 = 4</v>
+      </c>
+      <c r="L12" s="4">
+        <v>4</v>
+      </c>
+      <c r="M12" s="4">
+        <v>2</v>
+      </c>
+      <c r="N12" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 2 = 8</v>
+      </c>
+    </row>
+    <row r="13" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3</v>
+      </c>
+      <c r="F13" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 3 = 0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 3 = 6</v>
+      </c>
+      <c r="L13" s="4">
+        <v>4</v>
+      </c>
+      <c r="M13" s="4">
+        <v>3</v>
+      </c>
+      <c r="N13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 3 = 12</v>
+      </c>
+    </row>
+    <row r="14" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 4 = 0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 4 = 8</v>
+      </c>
+      <c r="L14" s="4">
+        <v>4</v>
+      </c>
+      <c r="M14" s="4">
+        <v>4</v>
+      </c>
+      <c r="N14" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 4 = 16</v>
+      </c>
+    </row>
+    <row r="15" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 5 = 0</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5</v>
+      </c>
+      <c r="J15" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 5 = 10</v>
+      </c>
+      <c r="L15" s="4">
+        <v>4</v>
+      </c>
+      <c r="M15" s="4">
+        <v>5</v>
+      </c>
+      <c r="N15" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 5 = 20</v>
+      </c>
+    </row>
+    <row r="16" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>6</v>
+      </c>
+      <c r="F16" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 6 = 0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6</v>
+      </c>
+      <c r="J16" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 6 = 12</v>
+      </c>
+      <c r="L16" s="4">
+        <v>4</v>
+      </c>
+      <c r="M16" s="4">
+        <v>6</v>
+      </c>
+      <c r="N16" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 6 = 24</v>
+      </c>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 7 = 0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>7</v>
+      </c>
+      <c r="J17" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 7 = 14</v>
+      </c>
+      <c r="L17" s="4">
+        <v>4</v>
+      </c>
+      <c r="M17" s="4">
+        <v>7</v>
+      </c>
+      <c r="N17" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 7 = 28</v>
+      </c>
+    </row>
+    <row r="18" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 8 = 0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 8 = 16</v>
+      </c>
+      <c r="L18" s="4">
+        <v>4</v>
+      </c>
+      <c r="M18" s="4">
+        <v>8</v>
+      </c>
+      <c r="N18" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 8 = 32</v>
+      </c>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9</v>
+      </c>
+      <c r="F19" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 9 = 0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 9 = 18</v>
+      </c>
+      <c r="L19" s="4">
+        <v>4</v>
+      </c>
+      <c r="M19" s="4">
+        <v>9</v>
+      </c>
+      <c r="N19" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 9 = 36</v>
+      </c>
+    </row>
+    <row r="20" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D20" s="4">
+        <v>0</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>0 x 10 = 0</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>2 x 10 = 20</v>
+      </c>
+      <c r="L20" s="4">
+        <v>4</v>
+      </c>
+      <c r="M20" s="4">
+        <v>10</v>
+      </c>
+      <c r="N20" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>4 x 10 = 40</v>
+      </c>
+    </row>
+    <row r="21" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; D21</f>
+        <v>Tabuada do 1</v>
+      </c>
+      <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; H21</f>
+        <v>Tabuada do 3</v>
+      </c>
+      <c r="L21" s="4">
+        <v>5</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; L21</f>
+        <v>Tabuada do 5</v>
+      </c>
+    </row>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 0 = 0</v>
+      </c>
+      <c r="H22" s="4">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4" t="str">
+        <f t="shared" ref="J22:J32" si="3">H22&amp;" x "&amp;I22&amp; " = " &amp; (H22*I22)</f>
+        <v>3 x 0 = 0</v>
+      </c>
+      <c r="L22" s="4">
+        <v>5</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="str">
+        <f t="shared" ref="N22:N32" si="4">L22&amp;" x "&amp;M22&amp; " = " &amp; (L22*M22)</f>
+        <v>5 x 0 = 0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 1 = 1</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 1 = 3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>5</v>
+      </c>
+      <c r="M23" s="4">
+        <v>1</v>
+      </c>
+      <c r="N23" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 1 = 5</v>
+      </c>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 2 = 2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3</v>
+      </c>
+      <c r="I24" s="4">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 2 = 6</v>
+      </c>
+      <c r="L24" s="4">
+        <v>5</v>
+      </c>
+      <c r="M24" s="4">
+        <v>2</v>
+      </c>
+      <c r="N24" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 2 = 10</v>
+      </c>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 3 = 3</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 3 = 9</v>
+      </c>
+      <c r="L25" s="4">
+        <v>5</v>
+      </c>
+      <c r="M25" s="4">
+        <v>3</v>
+      </c>
+      <c r="N25" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 3 = 15</v>
+      </c>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4</v>
+      </c>
+      <c r="F26" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 4 = 4</v>
+      </c>
+      <c r="H26" s="4">
+        <v>3</v>
+      </c>
+      <c r="I26" s="4">
+        <v>4</v>
+      </c>
+      <c r="J26" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 4 = 12</v>
+      </c>
+      <c r="L26" s="4">
+        <v>5</v>
+      </c>
+      <c r="M26" s="4">
+        <v>4</v>
+      </c>
+      <c r="N26" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 4 = 20</v>
+      </c>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 5 = 5</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5</v>
+      </c>
+      <c r="J27" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 5 = 15</v>
+      </c>
+      <c r="L27" s="4">
+        <v>5</v>
+      </c>
+      <c r="M27" s="4">
+        <v>5</v>
+      </c>
+      <c r="N27" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 5 = 25</v>
+      </c>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6</v>
+      </c>
+      <c r="F28" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 6 = 6</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3</v>
+      </c>
+      <c r="I28" s="4">
+        <v>6</v>
+      </c>
+      <c r="J28" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 6 = 18</v>
+      </c>
+      <c r="L28" s="4">
+        <v>5</v>
+      </c>
+      <c r="M28" s="4">
+        <v>6</v>
+      </c>
+      <c r="N28" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 6 = 30</v>
+      </c>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 7 = 7</v>
+      </c>
+      <c r="H29" s="4">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>7</v>
+      </c>
+      <c r="J29" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 7 = 21</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5</v>
+      </c>
+      <c r="M29" s="4">
+        <v>7</v>
+      </c>
+      <c r="N29" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 7 = 35</v>
+      </c>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 8 = 8</v>
+      </c>
+      <c r="H30" s="4">
+        <v>3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>8</v>
+      </c>
+      <c r="J30" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 8 = 24</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5</v>
+      </c>
+      <c r="M30" s="4">
+        <v>8</v>
+      </c>
+      <c r="N30" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 8 = 40</v>
+      </c>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>9</v>
+      </c>
+      <c r="F31" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 9 = 9</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 9 = 27</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5</v>
+      </c>
+      <c r="M31" s="4">
+        <v>9</v>
+      </c>
+      <c r="N31" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 9 = 45</v>
+      </c>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10</v>
+      </c>
+      <c r="F32" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>1 x 10 = 10</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4">
+        <v>10</v>
+      </c>
+      <c r="J32" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v>3 x 10 = 30</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5</v>
+      </c>
+      <c r="M32" s="4">
+        <v>10</v>
+      </c>
+      <c r="N32" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>5 x 10 = 50</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="D34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="H34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="L34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="4:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D36" s="4">
+        <v>6</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; D36</f>
+        <v>Tabuada do 6</v>
+      </c>
+      <c r="H36" s="4">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; H36</f>
+        <v>Tabuada do 8</v>
+      </c>
+      <c r="L36" s="4">
+        <v>10</v>
+      </c>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; L36</f>
+        <v>Tabuada do 10</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D37" s="4">
+        <v>6</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4" t="str">
+        <f>D37&amp;" x "&amp;E37&amp; " = " &amp; (D37*E37)</f>
+        <v>6 x 0 = 0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>8</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="4" t="str">
+        <f>H37&amp;" x "&amp;I37&amp; " = " &amp; (H37*I37)</f>
+        <v>8 x 0 = 0</v>
+      </c>
+      <c r="L37" s="4">
+        <v>10</v>
+      </c>
+      <c r="M37" s="4">
+        <v>0</v>
+      </c>
+      <c r="N37" s="4" t="str">
+        <f>L37&amp;" x "&amp;M37&amp; " = " &amp; (L37*M37)</f>
+        <v>10 x 0 = 0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D38" s="4">
+        <v>6</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="4" t="str">
+        <f t="shared" ref="F38:F59" si="5">D38&amp;" x "&amp;E38&amp; " = " &amp; (D38*E38)</f>
+        <v>6 x 1 = 6</v>
+      </c>
+      <c r="H38" s="4">
+        <v>8</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1</v>
+      </c>
+      <c r="J38" s="4" t="str">
+        <f t="shared" ref="J38:J47" si="6">H38&amp;" x "&amp;I38&amp; " = " &amp; (H38*I38)</f>
+        <v>8 x 1 = 8</v>
+      </c>
+      <c r="L38" s="4">
+        <v>10</v>
+      </c>
+      <c r="M38" s="4">
+        <v>1</v>
+      </c>
+      <c r="N38" s="4" t="str">
+        <f t="shared" ref="N38:N47" si="7">L38&amp;" x "&amp;M38&amp; " = " &amp; (L38*M38)</f>
+        <v>10 x 1 = 10</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D39" s="4">
+        <v>6</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 2 = 12</v>
+      </c>
+      <c r="H39" s="4">
+        <v>8</v>
+      </c>
+      <c r="I39" s="4">
+        <v>2</v>
+      </c>
+      <c r="J39" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 2 = 16</v>
+      </c>
+      <c r="L39" s="4">
+        <v>10</v>
+      </c>
+      <c r="M39" s="4">
+        <v>2</v>
+      </c>
+      <c r="N39" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 2 = 20</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D40" s="4">
+        <v>6</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 3 = 18</v>
+      </c>
+      <c r="H40" s="4">
+        <v>8</v>
+      </c>
+      <c r="I40" s="4">
+        <v>3</v>
+      </c>
+      <c r="J40" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 3 = 24</v>
+      </c>
+      <c r="L40" s="4">
+        <v>10</v>
+      </c>
+      <c r="M40" s="4">
+        <v>3</v>
+      </c>
+      <c r="N40" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 3 = 30</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D41" s="4">
+        <v>6</v>
+      </c>
+      <c r="E41" s="4">
+        <v>4</v>
+      </c>
+      <c r="F41" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 4 = 24</v>
+      </c>
+      <c r="H41" s="4">
+        <v>8</v>
+      </c>
+      <c r="I41" s="4">
+        <v>4</v>
+      </c>
+      <c r="J41" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 4 = 32</v>
+      </c>
+      <c r="L41" s="4">
+        <v>10</v>
+      </c>
+      <c r="M41" s="4">
+        <v>4</v>
+      </c>
+      <c r="N41" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 4 = 40</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D42" s="4">
+        <v>6</v>
+      </c>
+      <c r="E42" s="4">
+        <v>5</v>
+      </c>
+      <c r="F42" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 5 = 30</v>
+      </c>
+      <c r="H42" s="4">
+        <v>8</v>
+      </c>
+      <c r="I42" s="4">
+        <v>5</v>
+      </c>
+      <c r="J42" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 5 = 40</v>
+      </c>
+      <c r="L42" s="4">
+        <v>10</v>
+      </c>
+      <c r="M42" s="4">
+        <v>5</v>
+      </c>
+      <c r="N42" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 5 = 50</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D43" s="4">
+        <v>6</v>
+      </c>
+      <c r="E43" s="4">
+        <v>6</v>
+      </c>
+      <c r="F43" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 6 = 36</v>
+      </c>
+      <c r="H43" s="4">
+        <v>8</v>
+      </c>
+      <c r="I43" s="4">
+        <v>6</v>
+      </c>
+      <c r="J43" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 6 = 48</v>
+      </c>
+      <c r="L43" s="4">
+        <v>10</v>
+      </c>
+      <c r="M43" s="4">
+        <v>6</v>
+      </c>
+      <c r="N43" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 6 = 60</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D44" s="4">
+        <v>6</v>
+      </c>
+      <c r="E44" s="4">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 7 = 42</v>
+      </c>
+      <c r="H44" s="4">
+        <v>8</v>
+      </c>
+      <c r="I44" s="4">
+        <v>7</v>
+      </c>
+      <c r="J44" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 7 = 56</v>
+      </c>
+      <c r="L44" s="4">
+        <v>10</v>
+      </c>
+      <c r="M44" s="4">
+        <v>7</v>
+      </c>
+      <c r="N44" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 7 = 70</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D45" s="4">
+        <v>6</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 8 = 48</v>
+      </c>
+      <c r="H45" s="4">
+        <v>8</v>
+      </c>
+      <c r="I45" s="4">
+        <v>8</v>
+      </c>
+      <c r="J45" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 8 = 64</v>
+      </c>
+      <c r="L45" s="4">
+        <v>10</v>
+      </c>
+      <c r="M45" s="4">
+        <v>8</v>
+      </c>
+      <c r="N45" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 8 = 80</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D46" s="4">
+        <v>6</v>
+      </c>
+      <c r="E46" s="4">
+        <v>9</v>
+      </c>
+      <c r="F46" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 9 = 54</v>
+      </c>
+      <c r="H46" s="4">
+        <v>8</v>
+      </c>
+      <c r="I46" s="4">
+        <v>9</v>
+      </c>
+      <c r="J46" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 9 = 72</v>
+      </c>
+      <c r="L46" s="4">
+        <v>10</v>
+      </c>
+      <c r="M46" s="4">
+        <v>9</v>
+      </c>
+      <c r="N46" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 9 = 90</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D47" s="4">
+        <v>6</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10</v>
+      </c>
+      <c r="F47" s="4" t="str">
+        <f t="shared" si="5"/>
+        <v>6 x 10 = 60</v>
+      </c>
+      <c r="H47" s="4">
+        <v>8</v>
+      </c>
+      <c r="I47" s="4">
+        <v>10</v>
+      </c>
+      <c r="J47" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>8 x 10 = 80</v>
+      </c>
+      <c r="L47" s="4">
+        <v>10</v>
+      </c>
+      <c r="M47" s="4">
+        <v>10</v>
+      </c>
+      <c r="N47" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>10 x 10 = 100</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D48" s="4">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; D48</f>
+        <v>Tabuada do 7</v>
+      </c>
+      <c r="H48" s="4">
+        <v>9</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4" t="str">
+        <f xml:space="preserve"> "Tabuada do " &amp; H48</f>
+        <v>Tabuada do 9</v>
+      </c>
+    </row>
+    <row r="49" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D49" s="4">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4" t="str">
+        <f t="shared" ref="F49:F59" si="8">D49&amp;" x "&amp;E49&amp; " = " &amp; (D49*E49)</f>
+        <v>7 x 0 = 0</v>
+      </c>
+      <c r="H49" s="4">
+        <v>9</v>
+      </c>
+      <c r="I49" s="4">
+        <v>0</v>
+      </c>
+      <c r="J49" s="4" t="str">
+        <f t="shared" ref="J49:J59" si="9">H49&amp;" x "&amp;I49&amp; " = " &amp; (H49*I49)</f>
+        <v>9 x 0 = 0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D50" s="4">
+        <v>7</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 1 = 7</v>
+      </c>
+      <c r="H50" s="4">
+        <v>9</v>
+      </c>
+      <c r="I50" s="4">
+        <v>1</v>
+      </c>
+      <c r="J50" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 1 = 9</v>
+      </c>
+    </row>
+    <row r="51" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D51" s="4">
+        <v>7</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2</v>
+      </c>
+      <c r="F51" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 2 = 14</v>
+      </c>
+      <c r="H51" s="4">
+        <v>9</v>
+      </c>
+      <c r="I51" s="4">
+        <v>2</v>
+      </c>
+      <c r="J51" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 2 = 18</v>
+      </c>
+    </row>
+    <row r="52" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D52" s="4">
+        <v>7</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 3 = 21</v>
+      </c>
+      <c r="H52" s="4">
+        <v>9</v>
+      </c>
+      <c r="I52" s="4">
+        <v>3</v>
+      </c>
+      <c r="J52" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 3 = 27</v>
+      </c>
+    </row>
+    <row r="53" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D53" s="4">
+        <v>7</v>
+      </c>
+      <c r="E53" s="4">
+        <v>4</v>
+      </c>
+      <c r="F53" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 4 = 28</v>
+      </c>
+      <c r="H53" s="4">
+        <v>9</v>
+      </c>
+      <c r="I53" s="4">
+        <v>4</v>
+      </c>
+      <c r="J53" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 4 = 36</v>
+      </c>
+    </row>
+    <row r="54" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D54" s="4">
+        <v>7</v>
+      </c>
+      <c r="E54" s="4">
+        <v>5</v>
+      </c>
+      <c r="F54" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 5 = 35</v>
+      </c>
+      <c r="H54" s="4">
+        <v>9</v>
+      </c>
+      <c r="I54" s="4">
+        <v>5</v>
+      </c>
+      <c r="J54" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 5 = 45</v>
+      </c>
+    </row>
+    <row r="55" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D55" s="4">
+        <v>7</v>
+      </c>
+      <c r="E55" s="4">
+        <v>6</v>
+      </c>
+      <c r="F55" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 6 = 42</v>
+      </c>
+      <c r="H55" s="4">
+        <v>9</v>
+      </c>
+      <c r="I55" s="4">
+        <v>6</v>
+      </c>
+      <c r="J55" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 6 = 54</v>
+      </c>
+    </row>
+    <row r="56" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D56" s="4">
+        <v>7</v>
+      </c>
+      <c r="E56" s="4">
+        <v>7</v>
+      </c>
+      <c r="F56" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 7 = 49</v>
+      </c>
+      <c r="H56" s="4">
+        <v>9</v>
+      </c>
+      <c r="I56" s="4">
+        <v>7</v>
+      </c>
+      <c r="J56" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 7 = 63</v>
+      </c>
+    </row>
+    <row r="57" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D57" s="4">
+        <v>7</v>
+      </c>
+      <c r="E57" s="4">
+        <v>8</v>
+      </c>
+      <c r="F57" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 8 = 56</v>
+      </c>
+      <c r="H57" s="4">
+        <v>9</v>
+      </c>
+      <c r="I57" s="4">
+        <v>8</v>
+      </c>
+      <c r="J57" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 8 = 72</v>
+      </c>
+    </row>
+    <row r="58" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D58" s="4">
+        <v>7</v>
+      </c>
+      <c r="E58" s="4">
+        <v>9</v>
+      </c>
+      <c r="F58" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 9 = 63</v>
+      </c>
+      <c r="H58" s="4">
+        <v>9</v>
+      </c>
+      <c r="I58" s="4">
+        <v>9</v>
+      </c>
+      <c r="J58" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 9 = 81</v>
+      </c>
+    </row>
+    <row r="59" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D59" s="4">
+        <v>7</v>
+      </c>
+      <c r="E59" s="4">
+        <v>10</v>
+      </c>
+      <c r="F59" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>7 x 10 = 70</v>
+      </c>
+      <c r="H59" s="4">
+        <v>9</v>
+      </c>
+      <c r="I59" s="4">
+        <v>10</v>
+      </c>
+      <c r="J59" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>9 x 10 = 90</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="D7:I7"/>
+  <mergeCells count="6">
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
